--- a/results/I3_N5_M2_T45_C200_DepCentral_s1_P2_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.2485864913145</v>
+        <v>835.9115093050196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7828588633974837</v>
+        <v>7.445908584740821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7828588633974837</v>
+        <v>4.741951075243185</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.9099999999975</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.75</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -863,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.75054662682655</v>
+        <v>36.23964284834953</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>16.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38.76616769126618</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.233832308733817</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -903,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.6804620082536</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -911,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.44590858474082</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,15 +1001,141 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.86</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>203.34</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>217.055</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.51</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>199.0450000000008</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>130.5950000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4750000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>127.9650000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>136.1400000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>135.2800000000009</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>215.665</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>215.015</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>202.875</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>219.1099999999992</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>218.025</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>215.665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>215.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>219.1099999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>218.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.86</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.34</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.055</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.51</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000008</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1500,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.1099999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1533,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.860000000000014</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1555,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.339999999999549</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.05500000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1577,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.509999999999991</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1723,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1745,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1756,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1866,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1877,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1888,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1899,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1995,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2006,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2017,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2028,12 +2198,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
